--- a/组内评分/评分表.xlsx
+++ b/组内评分/评分表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14768\Documents\大三下学期\软件需求\小组作业\组内评分\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7943829E-A9EE-4BE1-9F5A-BE05D4DF8EAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEEA70A-3EBD-49CD-AFC8-52B2F314FD06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>工作分工</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32,11 +32,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>总分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹未评分（20%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆欣童评分（20%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王心怡评分（20%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵美芝评分（20%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程项目计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>李晓菁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目计划+可行性分析阶段</t>
+    <t>git仓库创建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写需求工程项目计划0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计及修改WBS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改可行性分析0.1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.1第三大部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -52,31 +92,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>负责创建git仓库，编写项目计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议纪要的编写，编写可行性分析报告5~8，项目章程7~13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写可行性分析报告2，4，项目章程4~6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写可行性分析报告1，3，项目章程1~3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>邵美芝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编写甘特图，PPT的制作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
+    <t>编写可行性分析0.0.1的1，3章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目章程0.0.1的1~3章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.0的风险子项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.1第四大部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo的设计制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写可行性分析0.0.1的2，4章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目章程0.0.1的4~6章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.0的人力资源子项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.1第二大部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议纪要的编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写可行性分析0.0.1的7，13章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写项目章程0.0.1的5~8章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.0的预算子项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改需求工程项目计划0.1.1第一大部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项目章程0.1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写甘特图0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作相关PPT0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写软件版本管理文档0.0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改甘特图0.1.0和0.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作PPT0.1.0和0.1.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -84,19 +180,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>曹未评分（20%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆欣童评分（20%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王心怡评分（20%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵美芝评分（20%）</t>
+    <t>完成度评分（50%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>态度评分（50%）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +240,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,10 +267,46 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -175,27 +317,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,196 +697,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H8"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="39.9296875" customWidth="1"/>
+    <col min="3" max="3" width="18.06640625" customWidth="1"/>
+    <col min="4" max="4" width="18.73046875" customWidth="1"/>
+    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
+    <col min="7" max="7" width="18.9296875" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>93</v>
-      </c>
-      <c r="E4">
-        <v>93</v>
-      </c>
-      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16">
+        <v>100</v>
+      </c>
+      <c r="D4" s="20">
+        <v>93</v>
+      </c>
+      <c r="E4" s="20">
+        <v>93</v>
+      </c>
+      <c r="F4" s="20">
+        <v>100</v>
+      </c>
+      <c r="G4" s="20">
+        <v>99</v>
+      </c>
+      <c r="H4" s="16">
+        <v>93</v>
+      </c>
+      <c r="I4" s="21">
+        <v>93</v>
+      </c>
+      <c r="J4" s="21">
+        <v>93</v>
+      </c>
+      <c r="K4" s="21">
         <v>96</v>
       </c>
-      <c r="G4">
-        <v>93</v>
-      </c>
-      <c r="H4">
-        <f>(C4+D4+E4+F4+G4)*0.2</f>
-        <v>93.600000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="L4" s="21">
+        <v>93</v>
+      </c>
+      <c r="M4" s="22">
+        <f>0.1*(C4+D4+E4+F4+G4+H4+I4+J4+K4+L4)</f>
+        <v>95.300000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>93</v>
-      </c>
-      <c r="D5" s="1">
-        <v>93</v>
-      </c>
-      <c r="E5">
-        <v>93</v>
-      </c>
-      <c r="F5">
+      <c r="C5" s="16"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="16">
+        <v>100</v>
+      </c>
+      <c r="D9" s="20">
+        <v>90</v>
+      </c>
+      <c r="E9" s="20">
+        <v>90</v>
+      </c>
+      <c r="F9" s="20">
+        <v>100</v>
+      </c>
+      <c r="G9" s="23">
+        <v>99</v>
+      </c>
+      <c r="H9" s="20">
+        <v>93</v>
+      </c>
+      <c r="I9" s="21">
+        <v>93</v>
+      </c>
+      <c r="J9" s="21">
+        <v>93</v>
+      </c>
+      <c r="K9" s="21">
         <v>95</v>
       </c>
-      <c r="G5">
-        <v>93</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H8" si="0">(C5+D5+E5+F5+G5)*0.2</f>
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>93</v>
-      </c>
-      <c r="F6">
+      <c r="L9" s="23">
+        <v>93</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" ref="M9" si="0">0.1*(C9+D9+E9+F9+G9+H9+I9+J9+K9+L9)</f>
+        <v>94.600000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16">
+        <v>100</v>
+      </c>
+      <c r="D14" s="20">
+        <v>92</v>
+      </c>
+      <c r="E14" s="20">
+        <v>90</v>
+      </c>
+      <c r="F14" s="20">
+        <v>100</v>
+      </c>
+      <c r="G14" s="20">
+        <v>99</v>
+      </c>
+      <c r="H14" s="16">
+        <v>93</v>
+      </c>
+      <c r="I14" s="21">
+        <v>93</v>
+      </c>
+      <c r="J14" s="21">
+        <v>93</v>
+      </c>
+      <c r="K14" s="21">
         <v>95</v>
       </c>
-      <c r="G6">
-        <v>93</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="L14" s="23">
+        <v>93</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" ref="M14" si="1">0.1*(C14+D14+E14+F14+G14+H14+I14+J14+K14+L14)</f>
+        <v>94.800000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="16">
+        <v>100</v>
+      </c>
+      <c r="D19" s="20">
         <v>95</v>
       </c>
-      <c r="D7">
+      <c r="E19" s="20">
+        <v>93</v>
+      </c>
+      <c r="F19" s="20">
+        <v>99</v>
+      </c>
+      <c r="G19" s="23">
+        <v>99</v>
+      </c>
+      <c r="H19" s="20">
         <v>95</v>
       </c>
-      <c r="E7">
+      <c r="I19" s="21">
         <v>95</v>
       </c>
-      <c r="F7">
+      <c r="J19" s="21">
         <v>95</v>
       </c>
-      <c r="G7">
+      <c r="K19" s="21">
         <v>95</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="L19" s="21">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+      <c r="M19" s="22">
+        <f t="shared" ref="M19" si="2">0.1*(C19+D19+E19+F19+G19+H19+I19+J19+K19+L19)</f>
+        <v>96.100000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="16">
+        <v>100</v>
+      </c>
+      <c r="D24" s="20">
+        <v>92</v>
+      </c>
+      <c r="E24" s="20">
+        <v>93</v>
+      </c>
+      <c r="F24" s="20">
+        <v>100</v>
+      </c>
+      <c r="G24" s="20">
+        <v>96</v>
+      </c>
+      <c r="H24" s="16">
         <v>90</v>
       </c>
-      <c r="D8">
+      <c r="I24" s="21">
         <v>95</v>
       </c>
-      <c r="E8">
+      <c r="J24" s="21">
         <v>95</v>
       </c>
-      <c r="F8">
+      <c r="K24" s="21">
         <v>96</v>
       </c>
-      <c r="G8">
+      <c r="L24" s="23">
         <v>90</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>93.2</v>
-      </c>
+      <c r="M24" s="22">
+        <f t="shared" ref="M24" si="3">0.1*(C24+D24+E24+F24+G24+H24+I24+J24+K24+L24)</f>
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
